--- a/data/ref_CSTR_ASM3hC_simulation_results.xlsx
+++ b/data/ref_CSTR_ASM3hC_simulation_results.xlsx
@@ -19,60 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>t_ss</t>
-  </si>
-  <si>
-    <t>c_SS</t>
-  </si>
-  <si>
-    <t>t_si</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>c_si</t>
-  </si>
-  <si>
-    <t>t_xs</t>
   </si>
   <si>
     <t>c_xs</t>
   </si>
   <si>
-    <t>t_xi</t>
-  </si>
-  <si>
     <t>c_xi</t>
-  </si>
-  <si>
-    <t>t_xh</t>
   </si>
   <si>
     <t>c_xh</t>
   </si>
   <si>
-    <t>t_xa</t>
-  </si>
-  <si>
     <t>c_xa</t>
-  </si>
-  <si>
-    <t>t_snh</t>
   </si>
   <si>
     <t>c_snh</t>
   </si>
   <si>
-    <t>t_sno</t>
-  </si>
-  <si>
     <t>c_sno</t>
   </si>
   <si>
-    <t>t_sn2</t>
+    <t>c_sn2</t>
   </si>
   <si>
-    <t>c_sn2</t>
+    <t>SimBa Version</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>c_ss</t>
   </si>
 </sst>
 </file>
@@ -572,7 +551,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -586,6 +565,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,71 +889,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H39"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -981,55 +940,34 @@
         <v>6750</v>
       </c>
       <c r="C2" s="8">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6750</v>
+      </c>
+      <c r="E2" s="10">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1350</v>
+      </c>
+      <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <v>100</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>6750</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2500</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>50</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>16</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1350</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K2" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>4.8253029282407406E-2</v>
       </c>
@@ -1037,55 +975,31 @@
         <v>6887.753590092495</v>
       </c>
       <c r="C3" s="8">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="D3" s="8">
         <v>99.860235473201129</v>
       </c>
-      <c r="E3" s="9">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="9">
         <v>6166.2044881030151</v>
       </c>
-      <c r="G3" s="10">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="E3" s="10">
         <v>27.485861084408093</v>
       </c>
-      <c r="I3" s="2">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="F3" s="2">
         <v>2514.8605264030125</v>
       </c>
-      <c r="K3" s="3">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="G3" s="3">
         <v>49.786347933132234</v>
       </c>
-      <c r="M3" s="4">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="H3" s="4">
         <v>27.000077109659667</v>
       </c>
-      <c r="O3" s="5">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="I3" s="5">
         <v>1293.802768634285</v>
       </c>
-      <c r="Q3" s="6">
-        <v>4.8253029282407406E-2</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="J3" s="6">
         <v>52.945278052453368</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.10260223587962963</v>
       </c>
@@ -1093,55 +1007,31 @@
         <v>7024.017974024353</v>
       </c>
       <c r="C4" s="8">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="D4" s="8">
         <v>99.703216642303516</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="9">
         <v>5522.8004251820294</v>
       </c>
-      <c r="G4" s="10">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="E4" s="10">
         <v>30.311652124931189</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="F4" s="2">
         <v>2563.3219111619901</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="G4" s="3">
         <v>49.546544550653728</v>
       </c>
-      <c r="M4" s="4">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="H4" s="4">
         <v>37.315482684009417</v>
       </c>
-      <c r="O4" s="5">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="I4" s="5">
         <v>1223.4936629928131</v>
       </c>
-      <c r="Q4" s="6">
-        <v>0.10260223587962963</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="J4" s="6">
         <v>119.59963182020013</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.15926803969907408</v>
       </c>
@@ -1149,55 +1039,31 @@
         <v>7140.1066501928099</v>
       </c>
       <c r="C5" s="8">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="D5" s="8">
         <v>99.539958717673059</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="9">
         <v>4868.2236155462897</v>
       </c>
-      <c r="G5" s="10">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="E5" s="10">
         <v>33.31122011010774</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="F5" s="2">
         <v>2628.6897452073304</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="G5" s="3">
         <v>49.29775227781478</v>
       </c>
-      <c r="M5" s="4">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="H5" s="4">
         <v>47.325533047556796</v>
       </c>
-      <c r="O5" s="5">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="I5" s="5">
         <v>1145.8381319697223</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0.15926803969907408</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="J5" s="6">
         <v>193.4551905542269</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.23823477500000001</v>
       </c>
@@ -1205,55 +1071,31 @@
         <v>7246.1157465484648</v>
       </c>
       <c r="C6" s="8">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="D6" s="8">
         <v>99.313220393978355</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="9">
         <v>3991.2011247678456</v>
       </c>
-      <c r="G6" s="10">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="E6" s="10">
         <v>37.604314539641514</v>
       </c>
-      <c r="I6" s="2">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="F6" s="2">
         <v>2735.1565983928303</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="G6" s="3">
         <v>48.953135103017367</v>
       </c>
-      <c r="M6" s="4">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="H6" s="4">
         <v>60.819236340985654</v>
       </c>
-      <c r="O6" s="5">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="I6" s="5">
         <v>1031.6453791251254</v>
       </c>
-      <c r="Q6" s="6">
-        <v>0.23823477500000001</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="J6" s="6">
         <v>302.37040879532259</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.31720151018518516</v>
       </c>
@@ -1261,55 +1103,31 @@
         <v>7268.709786512688</v>
       </c>
       <c r="C7" s="8">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="D7" s="8">
         <v>99.087375540983544</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="9">
         <v>3169.9898908288301</v>
       </c>
-      <c r="G7" s="10">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="E7" s="10">
         <v>42.048992808469194</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="F7" s="2">
         <v>2854.6834876924527</v>
       </c>
-      <c r="K7" s="3">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="G7" s="3">
         <v>48.610935292048573</v>
       </c>
-      <c r="M7" s="4">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="H7" s="4">
         <v>74.228643108493515</v>
       </c>
-      <c r="O7" s="5">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="I7" s="5">
         <v>911.0027901707856</v>
       </c>
-      <c r="Q7" s="6">
-        <v>0.31720151018518516</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="J7" s="6">
         <v>417.75625946549098</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.45574863032407409</v>
       </c>
@@ -1317,55 +1135,31 @@
         <v>7034.9371032747458</v>
       </c>
       <c r="C8" s="8">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="D8" s="8">
         <v>98.693279127101505</v>
       </c>
-      <c r="E8" s="9">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="9">
         <v>1926.9263281981443</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="E8" s="10">
         <v>50.26307978978685</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="F8" s="2">
         <v>3090.4218348034301</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="G8" s="3">
         <v>48.016346048252075</v>
       </c>
-      <c r="M8" s="4">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="H8" s="4">
         <v>98.205582687553289</v>
       </c>
-      <c r="O8" s="5">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="I8" s="5">
         <v>683.74398745057147</v>
       </c>
-      <c r="Q8" s="6">
-        <v>0.45574863032407409</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="J8" s="6">
         <v>635.84212029018249</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.55481238287037038</v>
       </c>
@@ -1373,55 +1167,31 @@
         <v>6599.1530446313873</v>
       </c>
       <c r="C9" s="8">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="D9" s="8">
         <v>98.413162098997645</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="9">
         <v>1241.146486729682</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="E9" s="10">
         <v>56.497298290386027</v>
       </c>
-      <c r="I9" s="2">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="F9" s="2">
         <v>3277.5768116876393</v>
       </c>
-      <c r="K9" s="3">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="G9" s="3">
         <v>47.595708526767929</v>
       </c>
-      <c r="M9" s="4">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="H9" s="4">
         <v>116.01589573492895</v>
       </c>
-      <c r="O9" s="5">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="I9" s="5">
         <v>508.61233316435005</v>
       </c>
-      <c r="Q9" s="6">
-        <v>0.55481238287037038</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="J9" s="6">
         <v>804.45380342666465</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.6270505575231482</v>
       </c>
@@ -1429,55 +1199,31 @@
         <v>6122.3979565844529</v>
       </c>
       <c r="C10" s="8">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="D10" s="8">
         <v>98.20977124663716</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D10" s="9">
         <v>862.46443445103375</v>
       </c>
-      <c r="G10" s="10">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="E10" s="10">
         <v>61.250448979497214</v>
       </c>
-      <c r="I10" s="2">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="F10" s="2">
         <v>3423.644620350437</v>
       </c>
-      <c r="K10" s="3">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="G10" s="3">
         <v>47.291340843527244</v>
       </c>
-      <c r="M10" s="4">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="H10" s="4">
         <v>129.45871691977442</v>
       </c>
-      <c r="O10" s="5">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="I10" s="5">
         <v>373.91344782261785</v>
       </c>
-      <c r="Q10" s="6">
-        <v>0.6270505575231482</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="J10" s="6">
         <v>934.41858706851167</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.6844388478009259</v>
       </c>
@@ -1485,55 +1231,31 @@
         <v>5649.6461323444892</v>
       </c>
       <c r="C11" s="8">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="D11" s="8">
         <v>98.048713930334145</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="9">
         <v>631.82720002403028</v>
       </c>
-      <c r="G11" s="10">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="E11" s="10">
         <v>65.157865103496121</v>
       </c>
-      <c r="I11" s="2">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="F11" s="2">
         <v>3545.6424610183312</v>
       </c>
-      <c r="K11" s="3">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="G11" s="3">
         <v>47.05097720741923</v>
       </c>
-      <c r="M11" s="4">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="H11" s="4">
         <v>140.43455517504407</v>
       </c>
-      <c r="O11" s="5">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="I11" s="5">
         <v>262.51240337702092</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0.6844388478009259</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="J11" s="6">
         <v>1042.070880255189</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.74182713807870371</v>
       </c>
@@ -1541,55 +1263,31 @@
         <v>5101.0743730438689</v>
       </c>
       <c r="C12" s="8">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="D12" s="8">
         <v>97.888118090234556</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="9">
         <v>455.3819550035721</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="E12" s="10">
         <v>69.184852322032484</v>
       </c>
-      <c r="I12" s="2">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="F12" s="2">
         <v>3672.9259696108938</v>
       </c>
-      <c r="K12" s="3">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="G12" s="3">
         <v>46.811940982085467</v>
       </c>
-      <c r="M12" s="4">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="H12" s="4">
         <v>151.68850392453194</v>
       </c>
-      <c r="O12" s="5">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="I12" s="5">
         <v>147.14940732858236</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0.74182713807870371</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="J12" s="6">
         <v>1153.6958663540345</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.79921542835648152</v>
       </c>
@@ -1597,55 +1295,31 @@
         <v>4490.0001769969485</v>
       </c>
       <c r="C13" s="8">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="D13" s="8">
         <v>97.7279824041034</v>
       </c>
-      <c r="E13" s="9">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="9">
         <v>323.97477092727542</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="E13" s="10">
         <v>73.308626286183113</v>
       </c>
-      <c r="I13" s="2">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="F13" s="2">
         <v>3804.5007646460276</v>
       </c>
-      <c r="K13" s="3">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="G13" s="3">
         <v>46.574909784651183</v>
       </c>
-      <c r="M13" s="4">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="H13" s="4">
         <v>163.16611476228573</v>
       </c>
-      <c r="O13" s="5">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="I13" s="5">
         <v>28.534847387202973</v>
       </c>
-      <c r="Q13" s="6">
-        <v>0.79921542835648152</v>
-      </c>
-      <c r="R13" s="6">
+      <c r="J13" s="6">
         <v>1268.5831269428975</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.84312623773148143</v>
       </c>
@@ -1653,55 +1327,31 @@
         <v>4381.4764190135493</v>
       </c>
       <c r="C14" s="8">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="D14" s="8">
         <v>97.605764063296448</v>
       </c>
-      <c r="E14" s="9">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="9">
         <v>247.97241863641773</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="E14" s="10">
         <v>74.338995140313926</v>
       </c>
-      <c r="I14" s="2">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="F14" s="2">
         <v>3830.5928733839201</v>
       </c>
-      <c r="K14" s="3">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="G14" s="3">
         <v>46.448635350732488</v>
       </c>
-      <c r="M14" s="4">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="H14" s="4">
         <v>165.7453881352414</v>
       </c>
-      <c r="O14" s="5">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="I14" s="5">
         <v>1.6357833755750109E-8</v>
       </c>
-      <c r="Q14" s="6">
-        <v>0.84312623773148143</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="J14" s="6">
         <v>1294.2732345695754</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.88956683333333331</v>
       </c>
@@ -1709,55 +1359,31 @@
         <v>4433.730043903869</v>
       </c>
       <c r="C15" s="8">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="D15" s="8">
         <v>97.476796109657826</v>
       </c>
-      <c r="E15" s="9">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="9">
         <v>186.04065844289929</v>
       </c>
-      <c r="G15" s="10">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="10">
         <v>74.401146159456374</v>
       </c>
-      <c r="I15" s="2">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="F15" s="2">
         <v>3821.9409545935987</v>
       </c>
-      <c r="K15" s="3">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="G15" s="3">
         <v>46.340906005323866</v>
       </c>
-      <c r="M15" s="4">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="H15" s="4">
         <v>165.48811406180533</v>
       </c>
-      <c r="O15" s="5">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="I15" s="5">
         <v>-1.5392770429679403E-11</v>
       </c>
-      <c r="Q15" s="6">
-        <v>0.88956683333333331</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="J15" s="6">
         <v>1291.2713916405587</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.93809638680555552</v>
       </c>
@@ -1765,55 +1391,31 @@
         <v>4472.4258928516829</v>
       </c>
       <c r="C16" s="8">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="D16" s="8">
         <v>97.342346584219342</v>
       </c>
-      <c r="E16" s="9">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="9">
         <v>137.25532074856628</v>
       </c>
-      <c r="G16" s="10">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="E16" s="10">
         <v>74.465938805457256</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="F16" s="2">
         <v>3812.9213001699932</v>
       </c>
-      <c r="K16" s="3">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="G16" s="3">
         <v>46.22859780058949</v>
       </c>
-      <c r="M16" s="4">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="H16" s="4">
         <v>165.21990497303355</v>
       </c>
-      <c r="O16" s="5">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="P16" s="5">
+      <c r="I16" s="5">
         <v>7.6867143754584218E-12</v>
       </c>
-      <c r="Q16" s="6">
-        <v>0.93809638680555552</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="J16" s="6">
         <v>1288.1419602747992</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1.0073757835648147</v>
       </c>
@@ -1821,55 +1423,31 @@
         <v>4506.5813793423613</v>
       </c>
       <c r="C17" s="8">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="D17" s="8">
         <v>97.150974733871578</v>
       </c>
-      <c r="E17" s="9">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="9">
         <v>88.738726452144704</v>
       </c>
-      <c r="G17" s="10">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="E17" s="10">
         <v>74.558162920891178</v>
       </c>
-      <c r="I17" s="2">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="F17" s="2">
         <v>3800.082965850339</v>
       </c>
-      <c r="K17" s="3">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="G17" s="3">
         <v>46.068741312587264</v>
       </c>
-      <c r="M17" s="4">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="H17" s="4">
         <v>164.83814334589604</v>
       </c>
-      <c r="O17" s="5">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="I17" s="5">
         <v>-5.5337651880907396E-13</v>
       </c>
-      <c r="Q17" s="6">
-        <v>1.0073757835648147</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="J17" s="6">
         <v>1283.6876115588111</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1.0523904037037037</v>
       </c>
@@ -1877,55 +1455,31 @@
         <v>4519.1071134776748</v>
       </c>
       <c r="C18" s="8">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="D18" s="8">
         <v>97.02698479922428</v>
       </c>
-      <c r="E18" s="9">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="9">
         <v>66.908422106909683</v>
       </c>
-      <c r="G18" s="10">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="E18" s="10">
         <v>74.617914979641895</v>
       </c>
-      <c r="I18" s="2">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="F18" s="2">
         <v>3791.765001476384</v>
       </c>
-      <c r="K18" s="3">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="G18" s="3">
         <v>45.965170199778477</v>
       </c>
-      <c r="M18" s="4">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="H18" s="4">
         <v>164.59079976263939</v>
       </c>
-      <c r="O18" s="5">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="I18" s="5">
         <v>1.3949289453285603E-11</v>
       </c>
-      <c r="Q18" s="6">
-        <v>1.0523904037037037</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="J18" s="6">
         <v>1280.8016364000082</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1.0974050238425925</v>
       </c>
@@ -1933,55 +1487,31 @@
         <v>4526.2235087543404</v>
       </c>
       <c r="C19" s="8">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="D19" s="8">
         <v>96.903273621683837</v>
       </c>
-      <c r="E19" s="9">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="9">
         <v>50.508375375089244</v>
       </c>
-      <c r="G19" s="10">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="E19" s="10">
         <v>74.677532702400299</v>
       </c>
-      <c r="I19" s="2">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="F19" s="2">
         <v>3783.465737746923</v>
       </c>
-      <c r="K19" s="3">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="G19" s="3">
         <v>45.861831937997835</v>
       </c>
-      <c r="M19" s="4">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="H19" s="4">
         <v>164.34401226308628</v>
       </c>
-      <c r="O19" s="5">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="I19" s="5">
         <v>1.1989483637910542E-13</v>
       </c>
-      <c r="Q19" s="6">
-        <v>1.0974050238425925</v>
-      </c>
-      <c r="R19" s="6">
+      <c r="J19" s="6">
         <v>1277.9221495589188</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1.1424196439814815</v>
       </c>
@@ -1989,55 +1519,31 @@
         <v>4529.272778884103</v>
       </c>
       <c r="C20" s="8">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="D20" s="8">
         <v>96.779840570001909</v>
       </c>
-      <c r="E20" s="9">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="D20" s="9">
         <v>38.196325174042464</v>
       </c>
-      <c r="G20" s="10">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="E20" s="10">
         <v>74.737016393370453</v>
       </c>
-      <c r="I20" s="2">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="F20" s="2">
         <v>3775.1851323142014</v>
       </c>
-      <c r="K20" s="3">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="G20" s="3">
         <v>45.758725999952269</v>
       </c>
-      <c r="M20" s="4">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="H20" s="4">
         <v>164.09777958797386</v>
       </c>
-      <c r="O20" s="5">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="I20" s="5">
         <v>-1.9101896203113191E-13</v>
       </c>
-      <c r="Q20" s="6">
-        <v>1.1424196439814815</v>
-      </c>
-      <c r="R20" s="6">
+      <c r="J20" s="6">
         <v>1275.0491363426411</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1.1874342641203703</v>
       </c>
@@ -2045,55 +1551,31 @@
         <v>4529.2539211798303</v>
       </c>
       <c r="C21" s="8">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="D21" s="8">
         <v>96.65668501836511</v>
       </c>
-      <c r="E21" s="9">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D21" s="9">
         <v>28.973227228235505</v>
       </c>
-      <c r="G21" s="10">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="E21" s="10">
         <v>74.796366354138797</v>
       </c>
-      <c r="I21" s="2">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="F21" s="2">
         <v>3766.9231431949925</v>
       </c>
-      <c r="K21" s="3">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="G21" s="3">
         <v>45.6558518628879</v>
       </c>
-      <c r="M21" s="4">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="H21" s="4">
         <v>163.85210048888848</v>
       </c>
-      <c r="O21" s="5">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="I21" s="5">
         <v>8.0381037035191038E-14</v>
       </c>
-      <c r="Q21" s="6">
-        <v>1.1874342641203703</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="J21" s="6">
         <v>1272.1825821848274</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1.2324488842592594</v>
       </c>
@@ -2101,55 +1583,31 @@
         <v>4526.9252712816115</v>
       </c>
       <c r="C22" s="8">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="D22" s="8">
         <v>96.533806343603445</v>
       </c>
-      <c r="E22" s="9">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="D22" s="9">
         <v>22.080699133302758</v>
       </c>
-      <c r="G22" s="10">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="E22" s="10">
         <v>74.855582885017427</v>
       </c>
-      <c r="I22" s="2">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="F22" s="2">
         <v>3758.6797285833868</v>
       </c>
-      <c r="K22" s="3">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="G22" s="3">
         <v>45.553209006258932</v>
       </c>
-      <c r="M22" s="4">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="H22" s="4">
         <v>163.60697372268882</v>
       </c>
-      <c r="O22" s="5">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="P22" s="5">
+      <c r="I22" s="5">
         <v>-1.1143322375929644E-14</v>
       </c>
-      <c r="Q22" s="6">
-        <v>1.2324488842592594</v>
-      </c>
-      <c r="R22" s="6">
+      <c r="J22" s="6">
         <v>1269.3224725806467</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1.2774635043981482</v>
       </c>
@@ -2157,55 +1615,31 @@
         <v>4522.8676031007462</v>
       </c>
       <c r="C23" s="8">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="D23" s="8">
         <v>96.411203923683843</v>
       </c>
-      <c r="E23" s="9">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="D23" s="9">
         <v>16.937920298805874</v>
       </c>
-      <c r="G23" s="10">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="E23" s="10">
         <v>74.914666285770593</v>
       </c>
-      <c r="I23" s="2">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="F23" s="2">
         <v>3750.4548467497798</v>
       </c>
-      <c r="K23" s="3">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="G23" s="3">
         <v>45.450796910469428</v>
       </c>
-      <c r="M23" s="4">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="H23" s="4">
         <v>163.36239804850098</v>
       </c>
-      <c r="O23" s="5">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="I23" s="5">
         <v>-2.9338814799809364E-15</v>
       </c>
-      <c r="Q23" s="6">
-        <v>1.2774635043981482</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="J23" s="6">
         <v>1266.4687930517287</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1.3224781244212962</v>
       </c>
@@ -2213,55 +1647,31 @@
         <v>4517.5225482382884</v>
       </c>
       <c r="C24" s="8">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="D24" s="8">
         <v>96.288877137571674</v>
       </c>
-      <c r="E24" s="9">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="D24" s="9">
         <v>13.103212519389386</v>
       </c>
-      <c r="G24" s="10">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="E24" s="10">
         <v>74.973616855681428</v>
       </c>
-      <c r="I24" s="2">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="F24" s="2">
         <v>3742.2484560315706</v>
       </c>
-      <c r="K24" s="3">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="G24" s="3">
         <v>45.348615056757573</v>
       </c>
-      <c r="M24" s="4">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="H24" s="4">
         <v>163.11837222744276</v>
       </c>
-      <c r="O24" s="5">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="P24" s="5">
+      <c r="I24" s="5">
         <v>9.4816004581314283E-16</v>
       </c>
-      <c r="Q24" s="6">
-        <v>1.3224781244212962</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="J24" s="6">
         <v>1263.6215291429451</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1.3674927445601852</v>
       </c>
@@ -2269,55 +1679,31 @@
         <v>4511.2220459342989</v>
       </c>
       <c r="C25" s="8">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="D25" s="8">
         <v>96.16682536550087</v>
       </c>
-      <c r="E25" s="9">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="D25" s="9">
         <v>10.24459004589308</v>
       </c>
-      <c r="G25" s="10">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="E25" s="10">
         <v>75.03243489342178</v>
       </c>
-      <c r="I25" s="2">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="F25" s="2">
         <v>3734.06051485126</v>
       </c>
-      <c r="K25" s="3">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="G25" s="3">
         <v>45.24666292742117</v>
       </c>
-      <c r="M25" s="4">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="H25" s="4">
         <v>162.87489502316245</v>
       </c>
-      <c r="O25" s="5">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="P25" s="5">
+      <c r="I25" s="5">
         <v>-1.4209285630620475E-16</v>
       </c>
-      <c r="Q25" s="6">
-        <v>1.3674927445601852</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="J25" s="6">
         <v>1260.7806664286934</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1.412507364699074</v>
       </c>
@@ -2325,55 +1711,31 @@
         <v>4504.2139076108142</v>
       </c>
       <c r="C26" s="8">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="D26" s="8">
         <v>96.045047989132897</v>
       </c>
-      <c r="E26" s="9">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="D26" s="9">
         <v>8.1141950543267569</v>
       </c>
-      <c r="G26" s="10">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="E26" s="10">
         <v>75.091120696975523</v>
       </c>
-      <c r="I26" s="2">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="F26" s="2">
         <v>3725.8909817271124</v>
       </c>
-      <c r="K26" s="3">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="G26" s="3">
         <v>45.144940005950502</v>
       </c>
-      <c r="M26" s="4">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="H26" s="4">
         <v>162.6319652021561</v>
       </c>
-      <c r="O26" s="5">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="P26" s="5">
+      <c r="I26" s="5">
         <v>-3.3522554370896971E-17</v>
       </c>
-      <c r="Q26" s="6">
-        <v>1.412507364699074</v>
-      </c>
-      <c r="R26" s="6">
+      <c r="J26" s="6">
         <v>1257.9461905165988</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1.457521984837963</v>
       </c>
@@ -2381,55 +1743,31 @@
         <v>4496.6829926167256</v>
       </c>
       <c r="C27" s="8">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="D27" s="8">
         <v>95.923544391567461</v>
       </c>
-      <c r="E27" s="9">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="9">
         <v>6.5271219017867601</v>
       </c>
-      <c r="G27" s="10">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="E27" s="10">
         <v>75.149674563633425</v>
       </c>
-      <c r="I27" s="2">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="F27" s="2">
         <v>3717.7398152738751</v>
       </c>
-      <c r="K27" s="3">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="G27" s="3">
         <v>45.043445777037199</v>
       </c>
-      <c r="M27" s="4">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="H27" s="4">
         <v>162.38958153378894</v>
       </c>
-      <c r="O27" s="5">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="P27" s="5">
+      <c r="I27" s="5">
         <v>8.1880173319235235E-18</v>
       </c>
-      <c r="Q27" s="6">
-        <v>1.457521984837963</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="J27" s="6">
         <v>1255.1180870477624</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1.5025366049768518</v>
       </c>
@@ -2437,55 +1775,31 @@
         <v>4488.7673923582097</v>
       </c>
       <c r="C28" s="8">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="D28" s="8">
         <v>95.802313957307149</v>
       </c>
-      <c r="E28" s="9">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="D28" s="9">
         <v>5.3452329933593594</v>
       </c>
-      <c r="G28" s="10">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="E28" s="10">
         <v>75.20809679001016</v>
       </c>
-      <c r="I28" s="2">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="F28" s="2">
         <v>3709.6069742004101</v>
       </c>
-      <c r="K28" s="3">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="G28" s="3">
         <v>44.942179726544772</v>
       </c>
-      <c r="M28" s="4">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="H28" s="4">
         <v>162.14774279022473</v>
       </c>
-      <c r="O28" s="5">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="P28" s="5">
+      <c r="I28" s="5">
         <v>-8.0698402862174523E-18</v>
       </c>
-      <c r="Q28" s="6">
-        <v>1.5025366049768518</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="J28" s="6">
         <v>1252.2963416959387</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1.5475512251157408</v>
       </c>
@@ -2493,55 +1807,31 @@
         <v>4480.5702963155691</v>
       </c>
       <c r="C29" s="8">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="D29" s="8">
         <v>95.681356072234934</v>
       </c>
-      <c r="E29" s="9">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D29" s="9">
         <v>4.465292763588808</v>
       </c>
-      <c r="G29" s="10">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="E29" s="10">
         <v>75.266387672055245</v>
       </c>
-      <c r="I29" s="2">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="F29" s="2">
         <v>3701.4924173081804</v>
       </c>
-      <c r="K29" s="3">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="G29" s="3">
         <v>44.841141341489731</v>
       </c>
-      <c r="M29" s="4">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="H29" s="4">
         <v>161.90644774638079</v>
       </c>
-      <c r="O29" s="5">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="P29" s="5">
+      <c r="I29" s="5">
         <v>-5.3454382647994507E-18</v>
       </c>
-      <c r="Q29" s="6">
-        <v>1.5475512251157408</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="J29" s="6">
         <v>1249.4809401670113</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1.5925658452546296</v>
       </c>
@@ -2549,55 +1839,31 @@
         <v>4472.1687218858178</v>
       </c>
       <c r="C30" s="8">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="D30" s="8">
         <v>95.560670123608872</v>
       </c>
-      <c r="E30" s="9">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="D30" s="9">
         <v>3.8102378335023492</v>
       </c>
-      <c r="G30" s="10">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="E30" s="10">
         <v>75.324547505055463</v>
       </c>
-      <c r="I30" s="2">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="F30" s="2">
         <v>3693.3961034909044</v>
       </c>
-      <c r="K30" s="3">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="G30" s="3">
         <v>44.74033011003732</v>
       </c>
-      <c r="M30" s="4">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="H30" s="4">
         <v>161.66569517991792</v>
       </c>
-      <c r="O30" s="5">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="P30" s="5">
+      <c r="I30" s="5">
         <v>-3.9534139270641411E-18</v>
       </c>
-      <c r="Q30" s="6">
-        <v>1.5925658452546296</v>
-      </c>
-      <c r="R30" s="6">
+      <c r="J30" s="6">
         <v>1246.6718681988718</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.6375804652777777</v>
       </c>
@@ -2605,55 +1871,31 @@
         <v>4463.6200646269654</v>
       </c>
       <c r="C31" s="8">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="D31" s="8">
         <v>95.440255500062804</v>
       </c>
-      <c r="E31" s="9">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="D31" s="9">
         <v>3.3226267663695297</v>
       </c>
-      <c r="G31" s="10">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="E31" s="10">
         <v>75.382576583634645</v>
       </c>
-      <c r="I31" s="2">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="F31" s="2">
         <v>3685.3179917345897</v>
       </c>
-      <c r="K31" s="3">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="G31" s="3">
         <v>44.639745521501901</v>
       </c>
-      <c r="M31" s="4">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="H31" s="4">
         <v>161.42548387124103</v>
       </c>
-      <c r="O31" s="5">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="P31" s="5">
+      <c r="I31" s="5">
         <v>-3.5262681053401432E-18</v>
       </c>
-      <c r="Q31" s="6">
-        <v>1.6375804652777777</v>
-      </c>
-      <c r="R31" s="6">
+      <c r="J31" s="6">
         <v>1243.8691115614326</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.6825950854166667</v>
       </c>
@@ -2661,55 +1903,31 @@
         <v>4454.9670581515384</v>
       </c>
       <c r="C32" s="8">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="D32" s="8">
         <v>95.32011159160534</v>
       </c>
-      <c r="E32" s="9">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="D32" s="9">
         <v>2.9596801741112757</v>
       </c>
-      <c r="G32" s="10">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="E32" s="10">
         <v>75.440475201754055</v>
       </c>
-      <c r="I32" s="2">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="F32" s="2">
         <v>3677.2580411174754</v>
       </c>
-      <c r="K32" s="3">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="G32" s="3">
         <v>44.539387066346272</v>
       </c>
-      <c r="M32" s="4">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="H32" s="4">
         <v>161.18581260349768</v>
       </c>
-      <c r="O32" s="5">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="P32" s="5">
+      <c r="I32" s="5">
         <v>-2.8536887632377895E-18</v>
       </c>
-      <c r="Q32" s="6">
-        <v>1.6825950854166667</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="J32" s="6">
         <v>1241.0726560566059</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.728722317824074</v>
       </c>
@@ -2717,55 +1935,31 @@
         <v>4446.0250608164133</v>
       </c>
       <c r="C33" s="8">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="D33" s="8">
         <v>95.197278322005587</v>
       </c>
-      <c r="E33" s="9">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="D33" s="9">
         <v>2.6839068533582244</v>
       </c>
-      <c r="G33" s="10">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="E33" s="10">
         <v>75.49966985140567</v>
       </c>
-      <c r="I33" s="2">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="F33" s="2">
         <v>3669.0176725476163</v>
       </c>
-      <c r="K33" s="3">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="G33" s="3">
         <v>44.436782137498696</v>
       </c>
-      <c r="M33" s="4">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="N33" s="4">
+      <c r="H33" s="4">
         <v>160.94077641461374</v>
       </c>
-      <c r="O33" s="5">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="P33" s="5">
+      <c r="I33" s="5">
         <v>-2.4027617750720497E-18</v>
       </c>
-      <c r="Q33" s="6">
-        <v>1.728722317824074</v>
-      </c>
-      <c r="R33" s="6">
+      <c r="J33" s="6">
         <v>1238.2136032976409</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1.7748495501157406</v>
       </c>
@@ -2773,55 +1967,31 @@
         <v>4437.0322920981253</v>
       </c>
       <c r="C34" s="8">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="D34" s="8">
         <v>95.074728022784583</v>
       </c>
-      <c r="E34" s="9">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="D34" s="9">
         <v>2.4801398471698093</v>
       </c>
-      <c r="G34" s="10">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="E34" s="10">
         <v>75.558728134643786</v>
       </c>
-      <c r="I34" s="2">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="F34" s="2">
         <v>3660.7962872729427</v>
       </c>
-      <c r="K34" s="3">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="G34" s="3">
         <v>44.334413579104115</v>
       </c>
-      <c r="M34" s="4">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="H34" s="4">
         <v>160.69630471435249</v>
       </c>
-      <c r="O34" s="5">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="P34" s="5">
+      <c r="I34" s="5">
         <v>-2.0118378619430733E-18</v>
       </c>
-      <c r="Q34" s="6">
-        <v>1.7748495501157406</v>
-      </c>
-      <c r="R34" s="6">
+      <c r="J34" s="6">
         <v>1235.3611369239832</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1.8209767824074075</v>
       </c>
@@ -2829,55 +1999,31 @@
         <v>4428.0074015566643</v>
       </c>
       <c r="C35" s="8">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="D35" s="8">
         <v>94.952460042061389</v>
       </c>
-      <c r="E35" s="9">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="D35" s="9">
         <v>2.3296806764822349</v>
       </c>
-      <c r="G35" s="10">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="E35" s="10">
         <v>75.61765036561674</v>
       </c>
-      <c r="I35" s="2">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="F35" s="2">
         <v>3652.5938415614964</v>
       </c>
-      <c r="K35" s="3">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="G35" s="3">
         <v>44.232280846634183</v>
       </c>
-      <c r="M35" s="4">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="H35" s="4">
         <v>160.45239620229736</v>
       </c>
-      <c r="O35" s="5">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="P35" s="5">
+      <c r="I35" s="5">
         <v>-5.4966066890541412E-17</v>
       </c>
-      <c r="Q35" s="6">
-        <v>1.8209767824074075</v>
-      </c>
-      <c r="R35" s="6">
+      <c r="J35" s="6">
         <v>1232.5152417625279</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1.8671040146990741</v>
       </c>
@@ -2885,55 +2031,31 @@
         <v>4418.9643016901919</v>
       </c>
       <c r="C36" s="8">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="D36" s="8">
         <v>94.830473729461218</v>
       </c>
-      <c r="E36" s="9">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="D36" s="9">
         <v>2.2185680370949967</v>
       </c>
-      <c r="G36" s="10">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="E36" s="10">
         <v>75.676436857747007</v>
       </c>
-      <c r="I36" s="2">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="F36" s="2">
         <v>3644.4102917823625</v>
       </c>
-      <c r="K36" s="3">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="L36" s="3">
+      <c r="G36" s="3">
         <v>44.130383396818658</v>
       </c>
-      <c r="M36" s="4">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="H36" s="4">
         <v>160.20904958103628</v>
       </c>
-      <c r="O36" s="5">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="P36" s="5">
+      <c r="I36" s="5">
         <v>-4.9347066081199113E-17</v>
       </c>
-      <c r="Q36" s="6">
-        <v>1.8671040146990741</v>
-      </c>
-      <c r="R36" s="6">
+      <c r="J36" s="6">
         <v>1229.6759026752279</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1.9132312469907407</v>
       </c>
@@ -2941,55 +2063,31 @@
         <v>4409.9132871846741</v>
       </c>
       <c r="C37" s="8">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="D37" s="8">
         <v>94.708768436108031</v>
       </c>
-      <c r="E37" s="9">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="D37" s="9">
         <v>2.1364585494756789</v>
       </c>
-      <c r="G37" s="10">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="E37" s="10">
         <v>75.735087923734767</v>
       </c>
-      <c r="I37" s="2">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="F37" s="2">
         <v>3636.2455944051703</v>
       </c>
-      <c r="K37" s="3">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="L37" s="3">
+      <c r="G37" s="3">
         <v>44.028720687639243</v>
       </c>
-      <c r="M37" s="4">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="H37" s="4">
         <v>159.96626355614714</v>
       </c>
-      <c r="O37" s="5">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="P37" s="5">
+      <c r="I37" s="5">
         <v>-2.2449485329271547E-17</v>
       </c>
-      <c r="Q37" s="6">
-        <v>1.9132312469907407</v>
-      </c>
-      <c r="R37" s="6">
+      <c r="J37" s="6">
         <v>1226.8431045589211</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1.9738549956018518</v>
       </c>
@@ -2997,55 +2095,31 @@
         <v>4398.0178423318948</v>
       </c>
       <c r="C38" s="8">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="D38" s="8">
         <v>94.549240811995517</v>
       </c>
-      <c r="E38" s="9">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="D38" s="9">
         <v>2.0604802109789748</v>
       </c>
-      <c r="G38" s="10">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="H38" s="10">
+      <c r="E38" s="10">
         <v>75.811965970292221</v>
       </c>
-      <c r="I38" s="2">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="F38" s="2">
         <v>3625.54355558422</v>
       </c>
-      <c r="K38" s="3">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="L38" s="3">
+      <c r="G38" s="3">
         <v>43.89546427775435</v>
       </c>
-      <c r="M38" s="4">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="N38" s="4">
+      <c r="H38" s="4">
         <v>159.64802696469593</v>
       </c>
-      <c r="O38" s="5">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="P38" s="5">
+      <c r="I38" s="5">
         <v>-1.3486661130383574E-18</v>
       </c>
-      <c r="Q38" s="6">
-        <v>1.9738549956018518</v>
-      </c>
-      <c r="R38" s="6">
+      <c r="J38" s="6">
         <v>1223.1299583133143</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -3053,51 +2127,27 @@
         <v>4392.8910366027822</v>
       </c>
       <c r="C39" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" s="8">
         <v>94.480590957842111</v>
       </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9">
+      <c r="D39" s="9">
         <v>2.0355985087685151</v>
       </c>
-      <c r="G39" s="10">
-        <v>2</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="E39" s="10">
         <v>75.845049059902109</v>
       </c>
-      <c r="I39" s="2">
-        <v>2</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="F39" s="2">
         <v>3620.9381249681146</v>
       </c>
-      <c r="K39" s="3">
-        <v>2</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="G39" s="3">
         <v>43.83811976983921</v>
       </c>
-      <c r="M39" s="4">
-        <v>2</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="H39" s="4">
         <v>159.51107955066067</v>
       </c>
-      <c r="O39" s="5">
-        <v>2</v>
-      </c>
-      <c r="P39" s="5">
+      <c r="I39" s="5">
         <v>-3.9584194548058115E-19</v>
       </c>
-      <c r="Q39" s="6">
-        <v>2</v>
-      </c>
-      <c r="R39" s="6">
+      <c r="J39" s="6">
         <v>1221.5320723695522</v>
       </c>
     </row>
